--- a/CU02 Administracion de Telemarketers.xlsx
+++ b/CU02 Administracion de Telemarketers.xlsx
@@ -22,9 +22,6 @@
     <t>Versión</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -79,10 +76,6 @@
     <t>Telemarketer</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario debe pertenecer al Tipo de Usuario Telemarketer.
-</t>
-  </si>
-  <si>
     <t>Ver Venta, paso 2.b</t>
   </si>
   <si>
@@ -99,6 +92,12 @@
 a - El actor hace clic en el boton "Ver" en algun registro del listado de oportunidadades.
 b - El actor hace clic en el boton "Ver" en algún registro del listado de ventas.
 </t>
+  </si>
+  <si>
+    <t>El actor debe estar logueado, debe pertenecer al Tipo de Usuario Telemarketer.</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -591,8 +590,8 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +604,7 @@
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5">
         <v>42897</v>
@@ -615,10 +614,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="6"/>
@@ -626,10 +625,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="6"/>
@@ -647,49 +646,49 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="25"/>
@@ -697,20 +696,20 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="20"/>
@@ -720,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -729,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -752,10 +751,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13"/>
     </row>
